--- a/GUI + Reviews/202512/Review 202512/Dataiku/TTEC_EMS_2025-12-11_2025-12-11-23-21-52.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/TTEC_EMS_2025-12-11_2025-12-11-23-21-52.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_ECD210C9A9EC1EF734ABE33376AB6C6179709693" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F927D5-560B-4C70-9913-830F958EAD82}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -772,8 +750,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,543 +814,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Index Composition"/>
-      <sheetName val="Inclusion"/>
-      <sheetName val="Exclusion"/>
-      <sheetName val="Full Universe"/>
-      <sheetName val="TRANSATLANTIC_DLF"/>
-      <sheetName val="Index Info"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>XMAD</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>XAMS</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>XAMS</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>XLON</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>XAMS</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>XETR</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>XPAR</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>XPAR</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>XSTO</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>XMAD</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>XETR</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>XSWX</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59" t="str">
-            <v>XETR</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68" t="str">
-            <v>XAMS</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v>XAMS</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75" t="str">
-            <v>XLON</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78" t="str">
-            <v>XETR</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79" t="str">
-            <v>XETR</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85" t="str">
-            <v>XPAR</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89" t="str">
-            <v>XSWX</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94" t="str">
-            <v>XOSL</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96" t="str">
-            <v>XNYS</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100" t="str">
-            <v>XNGS</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1410,7 +858,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1444,7 +892,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1479,10 +926,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1655,16 +1101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1715,12 +1159,8 @@
       <c r="H2" t="s">
         <v>218</v>
       </c>
-      <c r="I2" t="b">
-        <f>C2='[1]Index Composition'!C2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1745,12 +1185,8 @@
       <c r="H3" t="s">
         <v>218</v>
       </c>
-      <c r="I3" t="b">
-        <f>C3='[1]Index Composition'!C3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1775,12 +1211,8 @@
       <c r="H4" t="s">
         <v>218</v>
       </c>
-      <c r="I4" t="b">
-        <f>C4='[1]Index Composition'!C4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1805,12 +1237,8 @@
       <c r="H5" t="s">
         <v>219</v>
       </c>
-      <c r="I5" t="b">
-        <f>C5='[1]Index Composition'!C5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1835,12 +1263,8 @@
       <c r="H6" t="s">
         <v>218</v>
       </c>
-      <c r="I6" t="b">
-        <f>C6='[1]Index Composition'!C6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1865,12 +1289,8 @@
       <c r="H7" t="s">
         <v>218</v>
       </c>
-      <c r="I7" t="b">
-        <f>C7='[1]Index Composition'!C7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1895,12 +1315,8 @@
       <c r="H8" t="s">
         <v>218</v>
       </c>
-      <c r="I8" t="b">
-        <f>C8='[1]Index Composition'!C8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1925,12 +1341,8 @@
       <c r="H9" t="s">
         <v>218</v>
       </c>
-      <c r="I9" t="b">
-        <f>C9='[1]Index Composition'!C9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1955,12 +1367,8 @@
       <c r="H10" t="s">
         <v>218</v>
       </c>
-      <c r="I10" t="b">
-        <f>C10='[1]Index Composition'!C10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1985,12 +1393,8 @@
       <c r="H11" t="s">
         <v>219</v>
       </c>
-      <c r="I11" t="b">
-        <f>C11='[1]Index Composition'!C11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2015,12 +1419,8 @@
       <c r="H12" t="s">
         <v>219</v>
       </c>
-      <c r="I12" t="b">
-        <f>C12='[1]Index Composition'!C12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2045,12 +1445,8 @@
       <c r="H13" t="s">
         <v>218</v>
       </c>
-      <c r="I13" t="b">
-        <f>C13='[1]Index Composition'!C13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2075,12 +1471,8 @@
       <c r="H14" t="s">
         <v>218</v>
       </c>
-      <c r="I14" t="b">
-        <f>C14='[1]Index Composition'!C14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2105,12 +1497,8 @@
       <c r="H15" t="s">
         <v>220</v>
       </c>
-      <c r="I15" t="b">
-        <f>C15='[1]Index Composition'!C15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2135,12 +1523,8 @@
       <c r="H16" t="s">
         <v>218</v>
       </c>
-      <c r="I16" t="b">
-        <f>C16='[1]Index Composition'!C16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2165,12 +1549,8 @@
       <c r="H17" t="s">
         <v>219</v>
       </c>
-      <c r="I17" t="b">
-        <f>C17='[1]Index Composition'!C17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2195,12 +1575,8 @@
       <c r="H18" t="s">
         <v>219</v>
       </c>
-      <c r="I18" t="b">
-        <f>C18='[1]Index Composition'!C18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2225,12 +1601,8 @@
       <c r="H19" t="s">
         <v>218</v>
       </c>
-      <c r="I19" t="b">
-        <f>C19='[1]Index Composition'!C19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2255,12 +1627,8 @@
       <c r="H20" t="s">
         <v>218</v>
       </c>
-      <c r="I20" t="b">
-        <f>C20='[1]Index Composition'!C20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2274,7 +1642,7 @@
         <v>171347471</v>
       </c>
       <c r="E21">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2285,12 +1653,8 @@
       <c r="H21" t="s">
         <v>219</v>
       </c>
-      <c r="I21" t="b">
-        <f>C21='[1]Index Composition'!C21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2315,12 +1679,8 @@
       <c r="H22" t="s">
         <v>218</v>
       </c>
-      <c r="I22" t="b">
-        <f>C22='[1]Index Composition'!C22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2345,12 +1705,8 @@
       <c r="H23" t="s">
         <v>218</v>
       </c>
-      <c r="I23" t="b">
-        <f>C23='[1]Index Composition'!C23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2375,12 +1731,8 @@
       <c r="H24" t="s">
         <v>218</v>
       </c>
-      <c r="I24" t="b">
-        <f>C24='[1]Index Composition'!C24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2405,12 +1757,8 @@
       <c r="H25" t="s">
         <v>218</v>
       </c>
-      <c r="I25" t="b">
-        <f>C25='[1]Index Composition'!C25</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2435,12 +1783,8 @@
       <c r="H26" t="s">
         <v>218</v>
       </c>
-      <c r="I26" t="b">
-        <f>C26='[1]Index Composition'!C26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2465,12 +1809,8 @@
       <c r="H27" t="s">
         <v>218</v>
       </c>
-      <c r="I27" t="b">
-        <f>C27='[1]Index Composition'!C27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2495,12 +1835,8 @@
       <c r="H28" t="s">
         <v>218</v>
       </c>
-      <c r="I28" t="b">
-        <f>C28='[1]Index Composition'!C28</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2525,12 +1861,8 @@
       <c r="H29" t="s">
         <v>218</v>
       </c>
-      <c r="I29" t="b">
-        <f>C29='[1]Index Composition'!C29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2555,12 +1887,8 @@
       <c r="H30" t="s">
         <v>218</v>
       </c>
-      <c r="I30" t="b">
-        <f>C30='[1]Index Composition'!C30</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2585,12 +1913,8 @@
       <c r="H31" t="s">
         <v>219</v>
       </c>
-      <c r="I31" t="b">
-        <f>C31='[1]Index Composition'!C31</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2615,12 +1939,8 @@
       <c r="H32" t="s">
         <v>218</v>
       </c>
-      <c r="I32" t="b">
-        <f>C32='[1]Index Composition'!C32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2645,12 +1965,8 @@
       <c r="H33" t="s">
         <v>218</v>
       </c>
-      <c r="I33" t="b">
-        <f>C33='[1]Index Composition'!C33</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2675,12 +1991,8 @@
       <c r="H34" t="s">
         <v>218</v>
       </c>
-      <c r="I34" t="b">
-        <f>C34='[1]Index Composition'!C34</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2705,12 +2017,8 @@
       <c r="H35" t="s">
         <v>218</v>
       </c>
-      <c r="I35" t="b">
-        <f>C35='[1]Index Composition'!C35</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2735,12 +2043,8 @@
       <c r="H36" t="s">
         <v>218</v>
       </c>
-      <c r="I36" t="b">
-        <f>C36='[1]Index Composition'!C36</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2765,12 +2069,8 @@
       <c r="H37" t="s">
         <v>218</v>
       </c>
-      <c r="I37" t="b">
-        <f>C37='[1]Index Composition'!C37</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2795,12 +2095,8 @@
       <c r="H38" t="s">
         <v>218</v>
       </c>
-      <c r="I38" t="b">
-        <f>C38='[1]Index Composition'!C38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2825,12 +2121,8 @@
       <c r="H39" t="s">
         <v>221</v>
       </c>
-      <c r="I39" t="b">
-        <f>C39='[1]Index Composition'!C39</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2855,12 +2147,8 @@
       <c r="H40" t="s">
         <v>218</v>
       </c>
-      <c r="I40" t="b">
-        <f>C40='[1]Index Composition'!C40</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2885,12 +2173,8 @@
       <c r="H41" t="s">
         <v>218</v>
       </c>
-      <c r="I41" t="b">
-        <f>C41='[1]Index Composition'!C41</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2915,12 +2199,8 @@
       <c r="H42" t="s">
         <v>218</v>
       </c>
-      <c r="I42" t="b">
-        <f>C42='[1]Index Composition'!C42</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2945,12 +2225,8 @@
       <c r="H43" t="s">
         <v>219</v>
       </c>
-      <c r="I43" t="b">
-        <f>C43='[1]Index Composition'!C43</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2975,12 +2251,8 @@
       <c r="H44" t="s">
         <v>219</v>
       </c>
-      <c r="I44" t="b">
-        <f>C44='[1]Index Composition'!C44</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3005,12 +2277,8 @@
       <c r="H45" t="s">
         <v>218</v>
       </c>
-      <c r="I45" t="b">
-        <f>C45='[1]Index Composition'!C45</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3035,12 +2303,8 @@
       <c r="H46" t="s">
         <v>218</v>
       </c>
-      <c r="I46" t="b">
-        <f>C46='[1]Index Composition'!C46</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3065,12 +2329,8 @@
       <c r="H47" t="s">
         <v>218</v>
       </c>
-      <c r="I47" t="b">
-        <f>C47='[1]Index Composition'!C47</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3095,12 +2355,8 @@
       <c r="H48" t="s">
         <v>218</v>
       </c>
-      <c r="I48" t="b">
-        <f>C48='[1]Index Composition'!C48</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3125,12 +2381,8 @@
       <c r="H49" t="s">
         <v>218</v>
       </c>
-      <c r="I49" t="b">
-        <f>C49='[1]Index Composition'!C49</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3155,12 +2407,8 @@
       <c r="H50" t="s">
         <v>218</v>
       </c>
-      <c r="I50" t="b">
-        <f>C50='[1]Index Composition'!C50</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3185,12 +2433,8 @@
       <c r="H51" t="s">
         <v>222</v>
       </c>
-      <c r="I51" t="b">
-        <f>C51='[1]Index Composition'!C51</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3215,12 +2459,8 @@
       <c r="H52" t="s">
         <v>218</v>
       </c>
-      <c r="I52" t="b">
-        <f>C52='[1]Index Composition'!C52</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3245,12 +2485,8 @@
       <c r="H53" t="s">
         <v>218</v>
       </c>
-      <c r="I53" t="b">
-        <f>C53='[1]Index Composition'!C53</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3275,12 +2511,8 @@
       <c r="H54" t="s">
         <v>218</v>
       </c>
-      <c r="I54" t="b">
-        <f>C54='[1]Index Composition'!C54</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3305,12 +2537,8 @@
       <c r="H55" t="s">
         <v>218</v>
       </c>
-      <c r="I55" t="b">
-        <f>C55='[1]Index Composition'!C55</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3335,12 +2563,8 @@
       <c r="H56" t="s">
         <v>218</v>
       </c>
-      <c r="I56" t="b">
-        <f>C56='[1]Index Composition'!C56</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3365,12 +2589,8 @@
       <c r="H57" t="s">
         <v>218</v>
       </c>
-      <c r="I57" t="b">
-        <f>C57='[1]Index Composition'!C57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3395,12 +2615,8 @@
       <c r="H58" t="s">
         <v>218</v>
       </c>
-      <c r="I58" t="b">
-        <f>C58='[1]Index Composition'!C58</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3425,12 +2641,8 @@
       <c r="H59" t="s">
         <v>218</v>
       </c>
-      <c r="I59" t="b">
-        <f>C59='[1]Index Composition'!C59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3455,12 +2667,8 @@
       <c r="H60" t="s">
         <v>219</v>
       </c>
-      <c r="I60" t="b">
-        <f>C60='[1]Index Composition'!C60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3485,12 +2693,8 @@
       <c r="H61" t="s">
         <v>218</v>
       </c>
-      <c r="I61" t="b">
-        <f>C61='[1]Index Composition'!C61</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3515,12 +2719,8 @@
       <c r="H62" t="s">
         <v>218</v>
       </c>
-      <c r="I62" t="b">
-        <f>C62='[1]Index Composition'!C62</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3545,12 +2745,8 @@
       <c r="H63" t="s">
         <v>218</v>
       </c>
-      <c r="I63" t="b">
-        <f>C63='[1]Index Composition'!C63</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3575,12 +2771,8 @@
       <c r="H64" t="s">
         <v>218</v>
       </c>
-      <c r="I64" t="b">
-        <f>C64='[1]Index Composition'!C64</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3605,12 +2797,8 @@
       <c r="H65" t="s">
         <v>218</v>
       </c>
-      <c r="I65" t="b">
-        <f>C65='[1]Index Composition'!C65</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3635,12 +2823,8 @@
       <c r="H66" t="s">
         <v>218</v>
       </c>
-      <c r="I66" t="b">
-        <f>C66='[1]Index Composition'!C66</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3665,12 +2849,8 @@
       <c r="H67" t="s">
         <v>218</v>
       </c>
-      <c r="I67" t="b">
-        <f>C67='[1]Index Composition'!C67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3695,12 +2875,8 @@
       <c r="H68" t="s">
         <v>219</v>
       </c>
-      <c r="I68" t="b">
-        <f>C68='[1]Index Composition'!C68</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3725,12 +2901,8 @@
       <c r="H69" t="s">
         <v>218</v>
       </c>
-      <c r="I69" t="b">
-        <f>C69='[1]Index Composition'!C69</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3755,12 +2927,8 @@
       <c r="H70" t="s">
         <v>218</v>
       </c>
-      <c r="I70" t="b">
-        <f>C70='[1]Index Composition'!C70</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3785,12 +2953,8 @@
       <c r="H71" t="s">
         <v>218</v>
       </c>
-      <c r="I71" t="b">
-        <f>C71='[1]Index Composition'!C71</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3815,12 +2979,8 @@
       <c r="H72" t="s">
         <v>218</v>
       </c>
-      <c r="I72" t="b">
-        <f>C72='[1]Index Composition'!C72</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3845,12 +3005,8 @@
       <c r="H73" t="s">
         <v>219</v>
       </c>
-      <c r="I73" t="b">
-        <f>C73='[1]Index Composition'!C73</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3875,12 +3031,8 @@
       <c r="H74" t="s">
         <v>218</v>
       </c>
-      <c r="I74" t="b">
-        <f>C74='[1]Index Composition'!C74</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3905,12 +3057,8 @@
       <c r="H75" t="s">
         <v>220</v>
       </c>
-      <c r="I75" t="b">
-        <f>C75='[1]Index Composition'!C75</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3935,12 +3083,8 @@
       <c r="H76" t="s">
         <v>218</v>
       </c>
-      <c r="I76" t="b">
-        <f>C76='[1]Index Composition'!C76</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3965,12 +3109,8 @@
       <c r="H77" t="s">
         <v>218</v>
       </c>
-      <c r="I77" t="b">
-        <f>C77='[1]Index Composition'!C77</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3995,12 +3135,8 @@
       <c r="H78" t="s">
         <v>219</v>
       </c>
-      <c r="I78" t="b">
-        <f>C78='[1]Index Composition'!C78</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -4025,12 +3161,8 @@
       <c r="H79" t="s">
         <v>219</v>
       </c>
-      <c r="I79" t="b">
-        <f>C79='[1]Index Composition'!C79</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4055,12 +3187,8 @@
       <c r="H80" t="s">
         <v>218</v>
       </c>
-      <c r="I80" t="b">
-        <f>C80='[1]Index Composition'!C80</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4085,12 +3213,8 @@
       <c r="H81" t="s">
         <v>218</v>
       </c>
-      <c r="I81" t="b">
-        <f>C81='[1]Index Composition'!C81</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4115,12 +3239,8 @@
       <c r="H82" t="s">
         <v>218</v>
       </c>
-      <c r="I82" t="b">
-        <f>C82='[1]Index Composition'!C82</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4145,12 +3265,8 @@
       <c r="H83" t="s">
         <v>218</v>
       </c>
-      <c r="I83" t="b">
-        <f>C83='[1]Index Composition'!C83</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4175,12 +3291,8 @@
       <c r="H84" t="s">
         <v>218</v>
       </c>
-      <c r="I84" t="b">
-        <f>C84='[1]Index Composition'!C84</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4194,7 +3306,7 @@
         <v>911281920</v>
       </c>
       <c r="E85">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4205,12 +3317,8 @@
       <c r="H85" t="s">
         <v>219</v>
       </c>
-      <c r="I85" t="b">
-        <f>C85='[1]Index Composition'!C85</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4235,12 +3343,8 @@
       <c r="H86" t="s">
         <v>218</v>
       </c>
-      <c r="I86" t="b">
-        <f>C86='[1]Index Composition'!C86</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4265,12 +3369,8 @@
       <c r="H87" t="s">
         <v>218</v>
       </c>
-      <c r="I87" t="b">
-        <f>C87='[1]Index Composition'!C87</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4295,12 +3395,8 @@
       <c r="H88" t="s">
         <v>218</v>
       </c>
-      <c r="I88" t="b">
-        <f>C88='[1]Index Composition'!C88</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4325,12 +3421,8 @@
       <c r="H89" t="s">
         <v>222</v>
       </c>
-      <c r="I89" t="b">
-        <f>C89='[1]Index Composition'!C89</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4355,12 +3447,8 @@
       <c r="H90" t="s">
         <v>218</v>
       </c>
-      <c r="I90" t="b">
-        <f>C90='[1]Index Composition'!C90</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4385,12 +3473,8 @@
       <c r="H91" t="s">
         <v>218</v>
       </c>
-      <c r="I91" t="b">
-        <f>C91='[1]Index Composition'!C91</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4415,12 +3499,8 @@
       <c r="H92" t="s">
         <v>218</v>
       </c>
-      <c r="I92" t="b">
-        <f>C92='[1]Index Composition'!C92</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4445,12 +3525,8 @@
       <c r="H93" t="s">
         <v>218</v>
       </c>
-      <c r="I93" t="b">
-        <f>C93='[1]Index Composition'!C93</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4475,12 +3551,8 @@
       <c r="H94" t="s">
         <v>223</v>
       </c>
-      <c r="I94" t="b">
-        <f>C94='[1]Index Composition'!C94</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4505,12 +3577,8 @@
       <c r="H95" t="s">
         <v>218</v>
       </c>
-      <c r="I95" t="b">
-        <f>C95='[1]Index Composition'!C95</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4535,12 +3603,8 @@
       <c r="H96" t="s">
         <v>218</v>
       </c>
-      <c r="I96" t="b">
-        <f>C96='[1]Index Composition'!C96</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4565,12 +3629,8 @@
       <c r="H97" t="s">
         <v>218</v>
       </c>
-      <c r="I97" t="b">
-        <f>C97='[1]Index Composition'!C97</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4595,12 +3655,8 @@
       <c r="H98" t="s">
         <v>218</v>
       </c>
-      <c r="I98" t="b">
-        <f>C98='[1]Index Composition'!C98</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4625,12 +3681,8 @@
       <c r="H99" t="s">
         <v>218</v>
       </c>
-      <c r="I99" t="b">
-        <f>C99='[1]Index Composition'!C99</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4655,28 +3707,21 @@
       <c r="H100" t="s">
         <v>218</v>
       </c>
-      <c r="I100" t="b">
-        <f>C100='[1]Index Composition'!C100</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4698,7 +3743,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -4709,7 +3754,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4720,7 +3765,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -4731,7 +3776,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -4742,7 +3787,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -4755,21 +3800,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4780,7 +3822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -4791,7 +3833,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -4802,7 +3844,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -4813,7 +3855,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>227</v>
       </c>
@@ -4824,7 +3866,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -4835,7 +3877,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -4846,7 +3888,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>230</v>
       </c>
@@ -4857,7 +3899,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -4868,7 +3910,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -4881,8 +3923,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>